--- a/DRL-HK2-Nam3/DRL-HK2.xlsx
+++ b/DRL-HK2-Nam3/DRL-HK2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -38,12 +38,21 @@
   </si>
   <si>
     <t>Thi tìm hiểu nghị quyết đại hội đảng bộ tĩnh An Giang lần thứ XI, nhiệm kì 2020-2025</t>
+  </si>
+  <si>
+    <t>Chưa thi</t>
+  </si>
+  <si>
+    <t>Tiếng anh web</t>
+  </si>
+  <si>
+    <t>Thanh niên khỏe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,21 +394,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +426,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -432,7 +441,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -447,7 +456,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -462,7 +471,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -471,7 +480,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -480,7 +489,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -489,7 +498,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -498,7 +507,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -507,7 +516,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -516,7 +525,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -525,7 +534,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -533,6 +542,21 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DRL-HK2-Nam3/DRL-HK2.xlsx
+++ b/DRL-HK2-Nam3/DRL-HK2.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -40,13 +40,19 @@
     <t>Thi tìm hiểu nghị quyết đại hội đảng bộ tĩnh An Giang lần thứ XI, nhiệm kì 2020-2025</t>
   </si>
   <si>
-    <t>Chưa thi</t>
-  </si>
-  <si>
-    <t>Tiếng anh web</t>
-  </si>
-  <si>
-    <t>Thanh niên khỏe</t>
+    <t>Quyên góp sách 3kg Cho CLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giải nhì Cuộc thi sáng tạo sinh viên </t>
+  </si>
+  <si>
+    <t>Hoạt động chưa thực hiện</t>
+  </si>
+  <si>
+    <t>Thi Olympic English</t>
+  </si>
+  <si>
+    <t>28/03 - 24/04</t>
   </si>
 </sst>
 </file>
@@ -82,13 +88,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
@@ -436,7 +448,7 @@
       <c r="C2" s="2">
         <v>44245</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2"/>
@@ -451,7 +463,7 @@
       <c r="C3" s="2">
         <v>44249</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
@@ -466,7 +478,7 @@
       <c r="C4" s="2">
         <v>44252</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1"/>
@@ -475,19 +487,31 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>44282</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="2">
+        <v>44286</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -545,17 +569,15 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DRL-HK2-Nam3/DRL-HK2.xlsx
+++ b/DRL-HK2-Nam3/DRL-HK2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,19 +409,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +439,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -453,7 +454,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -468,7 +469,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -483,7 +484,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -498,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -513,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -522,7 +523,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -531,7 +532,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -540,7 +541,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -549,7 +550,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -558,7 +559,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -567,12 +568,12 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -584,4 +585,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DRL-HK2-Nam3/DRL-HK2.xlsx
+++ b/DRL-HK2-Nam3/DRL-HK2.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -41,19 +41,10 @@
     <t>Thi tìm hiểu nghị quyết đại hội đảng bộ tĩnh An Giang lần thứ XI, nhiệm kì 2020-2025</t>
   </si>
   <si>
-    <t>Quyên góp sách 3kg Cho CLB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Giải nhì Cuộc thi sáng tạo sinh viên </t>
   </si>
   <si>
-    <t>Hoạt động chưa thực hiện</t>
-  </si>
-  <si>
-    <t>Thi Olympic English</t>
-  </si>
-  <si>
-    <t>28/03 - 24/04</t>
+    <t>Quyên góp sách 3kg Cho CLB Kỹ năng và công tác xã hội AGU</t>
   </si>
 </sst>
 </file>
@@ -407,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +484,7 @@
         <v>44282</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>7</v>
@@ -508,7 +499,7 @@
         <v>44286</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -567,19 +558,6 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -591,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
